--- a/Data/EC/NIT-8001448131.xlsx
+++ b/Data/EC/NIT-8001448131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC60B2F3-790F-4F9A-9E56-768F0E823DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{047A8A49-A782-49C2-AB81-170579DF4392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB2DC69D-EC13-4344-8A2B-F71D4E3FEF6D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B3BA9D7-8433-41F1-B755-26162DB5D9BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="67">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,109 +71,127 @@
     <t>EUSTAQUIO IRIARTE ACEVEDO</t>
   </si>
   <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>1802</t>
   </si>
   <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
+    <t>1048436500</t>
+  </si>
+  <si>
+    <t>ANDERSON ALVEIRO TORRES MONTALVO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1193117793</t>
+  </si>
+  <si>
+    <t>EDGAR DAVID OSPINO RINCON</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>1002247900</t>
@@ -182,13 +200,10 @@
     <t>JULIO CESAR ORTEGA ARTEAGA</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1193117793</t>
-  </si>
-  <si>
-    <t>EDGAR DAVID OSPINO RINCON</t>
+    <t>1001975824</t>
+  </si>
+  <si>
+    <t>HENRY ALFONSO REYES ANILLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -602,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F86397-5847-2C50-F301-B6251A591DA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955751B-BF3A-7EF8-EA9D-E6534B0ACD43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,8 +968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8294A739-F74C-4BDC-9D8C-32E8A06C9AD3}">
-  <dimension ref="B2:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53F609-E303-401D-9E84-235D233B0AA6}">
+  <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -965,7 +980,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -978,7 +993,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1023,7 +1038,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1055,12 +1070,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1350440</v>
+        <v>1550778</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1071,17 +1086,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1108,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1936,66 +1951,158 @@
         <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>59220</v>
+        <v>59248</v>
       </c>
       <c r="G51" s="18">
-        <v>1645000</v>
+        <v>1932000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="18">
+        <v>65800</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1645000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="18">
         <v>59220</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G53" s="18">
         <v>1645000</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="18">
+        <v>65800</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1645000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="18">
+        <v>59220</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1645000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="24">
+        <v>9490</v>
+      </c>
+      <c r="G56" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="H62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H61:J61"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
